--- a/output/observations-summary.xlsx
+++ b/output/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="96">
   <si>
     <t>Profile</t>
   </si>
@@ -62,27 +62,30 @@
     <t>dateTime, Period, Timing, instant</t>
   </si>
   <si>
+    <t>CodeableConceptĵ</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>copy-number</t>
+  </si>
+  <si>
+    <t>Variant Copy Number</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#laboratory</t>
+  </si>
+  <si>
+    <t>LOINC#69548-6</t>
+  </si>
+  <si>
+    <t>dateTime</t>
+  </si>
+  <si>
     <t>CodeableConcept</t>
   </si>
   <si>
-    <t>optional</t>
-  </si>
-  <si>
-    <t>copy-number</t>
-  </si>
-  <si>
-    <t>Variant Copy Number</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#laboratory</t>
-  </si>
-  <si>
-    <t>LOINC#69548-6</t>
-  </si>
-  <si>
-    <t>dateTime</t>
-  </si>
-  <si>
     <t>LOINC#48018-6</t>
   </si>
   <si>
@@ -294,6 +297,9 @@
   </si>
   <si>
     <t>LOINC#22023-6</t>
+  </si>
+  <si>
+    <t>dateTimeĵ</t>
   </si>
 </sst>
 </file>
@@ -526,7 +532,7 @@
         <v>22</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>17</v>
@@ -552,7 +558,7 @@
         <v>13</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>13</v>
@@ -561,7 +567,7 @@
         <v>13</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I4" t="s" s="2">
         <v>17</v>
@@ -587,7 +593,7 @@
         <v>13</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s" s="2">
         <v>13</v>
@@ -596,7 +602,7 @@
         <v>13</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I5" t="s" s="2">
         <v>17</v>
@@ -622,7 +628,7 @@
         <v>13</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>13</v>
@@ -631,7 +637,7 @@
         <v>13</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I6" t="s" s="2">
         <v>17</v>
@@ -657,7 +663,7 @@
         <v>13</v>
       </c>
       <c r="E7" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>13</v>
@@ -666,7 +672,7 @@
         <v>13</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I7" t="s" s="2">
         <v>17</v>
@@ -692,7 +698,7 @@
         <v>13</v>
       </c>
       <c r="E8" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F8" t="s" s="2">
         <v>13</v>
@@ -701,7 +707,7 @@
         <v>13</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I8" t="s" s="2">
         <v>17</v>
@@ -727,7 +733,7 @@
         <v>13</v>
       </c>
       <c r="E9" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>13</v>
@@ -736,7 +742,7 @@
         <v>13</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I9" t="s" s="2">
         <v>17</v>
@@ -762,7 +768,7 @@
         <v>13</v>
       </c>
       <c r="E10" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>13</v>
@@ -771,7 +777,7 @@
         <v>13</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>17</v>
@@ -797,7 +803,7 @@
         <v>13</v>
       </c>
       <c r="E11" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>13</v>
@@ -806,7 +812,7 @@
         <v>13</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>17</v>
@@ -832,7 +838,7 @@
         <v>13</v>
       </c>
       <c r="E12" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>13</v>
@@ -841,7 +847,7 @@
         <v>13</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>17</v>
@@ -867,7 +873,7 @@
         <v>13</v>
       </c>
       <c r="E13" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>13</v>
@@ -876,7 +882,7 @@
         <v>13</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>17</v>
@@ -902,7 +908,7 @@
         <v>13</v>
       </c>
       <c r="E14" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>13</v>
@@ -911,7 +917,7 @@
         <v>13</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>17</v>
@@ -937,7 +943,7 @@
         <v>13</v>
       </c>
       <c r="E15" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>13</v>
@@ -946,7 +952,7 @@
         <v>13</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>17</v>
@@ -972,7 +978,7 @@
         <v>13</v>
       </c>
       <c r="E16" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>13</v>
@@ -981,7 +987,7 @@
         <v>13</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>17</v>
@@ -1007,7 +1013,7 @@
         <v>13</v>
       </c>
       <c r="E17" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>13</v>
@@ -1016,7 +1022,7 @@
         <v>13</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>17</v>
@@ -1042,7 +1048,7 @@
         <v>13</v>
       </c>
       <c r="E18" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>13</v>
@@ -1051,7 +1057,7 @@
         <v>13</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>17</v>
@@ -1077,16 +1083,16 @@
         <v>13</v>
       </c>
       <c r="E19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F19" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H19" t="s" s="2">
         <v>39</v>
-      </c>
-      <c r="F19" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="G19" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>38</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>17</v>
@@ -1112,7 +1118,7 @@
         <v>13</v>
       </c>
       <c r="E20" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>13</v>
@@ -1121,7 +1127,7 @@
         <v>13</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>17</v>
@@ -1147,7 +1153,7 @@
         <v>13</v>
       </c>
       <c r="E21" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>13</v>
@@ -1156,7 +1162,7 @@
         <v>13</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>17</v>
@@ -1182,7 +1188,7 @@
         <v>13</v>
       </c>
       <c r="E22" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>13</v>
@@ -1191,7 +1197,7 @@
         <v>13</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>17</v>
@@ -1217,16 +1223,16 @@
         <v>13</v>
       </c>
       <c r="E23" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="F23" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H23" t="s" s="2">
         <v>44</v>
-      </c>
-      <c r="F23" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="G23" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>43</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>17</v>
@@ -1252,7 +1258,7 @@
         <v>13</v>
       </c>
       <c r="E24" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>13</v>
@@ -1261,7 +1267,7 @@
         <v>13</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>17</v>
@@ -1287,7 +1293,7 @@
         <v>13</v>
       </c>
       <c r="E25" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>13</v>
@@ -1296,7 +1302,7 @@
         <v>13</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>17</v>
@@ -1322,7 +1328,7 @@
         <v>13</v>
       </c>
       <c r="E26" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>13</v>
@@ -1331,7 +1337,7 @@
         <v>13</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>17</v>
@@ -1357,7 +1363,7 @@
         <v>13</v>
       </c>
       <c r="E27" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>13</v>
@@ -1366,7 +1372,7 @@
         <v>13</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>17</v>
@@ -1392,7 +1398,7 @@
         <v>13</v>
       </c>
       <c r="E28" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>13</v>
@@ -1401,7 +1407,7 @@
         <v>13</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>17</v>
@@ -1427,7 +1433,7 @@
         <v>13</v>
       </c>
       <c r="E29" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>13</v>
@@ -1436,7 +1442,7 @@
         <v>13</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>17</v>
@@ -1462,7 +1468,7 @@
         <v>13</v>
       </c>
       <c r="E30" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>13</v>
@@ -1471,7 +1477,7 @@
         <v>13</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>17</v>
@@ -1497,7 +1503,7 @@
         <v>13</v>
       </c>
       <c r="E31" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>13</v>
@@ -1506,7 +1512,7 @@
         <v>13</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>17</v>
@@ -1532,7 +1538,7 @@
         <v>13</v>
       </c>
       <c r="E32" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>13</v>
@@ -1541,7 +1547,7 @@
         <v>13</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>17</v>
@@ -1567,7 +1573,7 @@
         <v>13</v>
       </c>
       <c r="E33" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>13</v>
@@ -1576,7 +1582,7 @@
         <v>13</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>17</v>
@@ -1602,7 +1608,7 @@
         <v>13</v>
       </c>
       <c r="E34" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>13</v>
@@ -1611,7 +1617,7 @@
         <v>13</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>17</v>
@@ -1637,16 +1643,16 @@
         <v>13</v>
       </c>
       <c r="E35" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="F35" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H35" t="s" s="2">
         <v>58</v>
-      </c>
-      <c r="F35" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="G35" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>57</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>17</v>
@@ -1672,7 +1678,7 @@
         <v>13</v>
       </c>
       <c r="E36" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>13</v>
@@ -1681,7 +1687,7 @@
         <v>13</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>17</v>
@@ -1707,7 +1713,7 @@
         <v>13</v>
       </c>
       <c r="E37" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>13</v>
@@ -1716,7 +1722,7 @@
         <v>13</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>17</v>
@@ -1742,7 +1748,7 @@
         <v>13</v>
       </c>
       <c r="E38" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>13</v>
@@ -1751,7 +1757,7 @@
         <v>13</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>17</v>
@@ -1765,10 +1771,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C39" t="s" s="2">
         <v>13</v>
@@ -1777,7 +1783,7 @@
         <v>13</v>
       </c>
       <c r="E39" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>13</v>
@@ -1786,7 +1792,7 @@
         <v>15</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>17</v>
@@ -1803,7 +1809,7 @@
         <v>13</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C40" t="s" s="2">
         <v>13</v>
@@ -1812,7 +1818,7 @@
         <v>13</v>
       </c>
       <c r="E40" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>13</v>
@@ -1821,7 +1827,7 @@
         <v>13</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>17</v>
@@ -1838,7 +1844,7 @@
         <v>13</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C41" t="s" s="2">
         <v>13</v>
@@ -1847,16 +1853,16 @@
         <v>13</v>
       </c>
       <c r="E41" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="F41" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H41" t="s" s="2">
         <v>58</v>
-      </c>
-      <c r="F41" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="G41" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>57</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>17</v>
@@ -1873,7 +1879,7 @@
         <v>13</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C42" t="s" s="2">
         <v>13</v>
@@ -1882,7 +1888,7 @@
         <v>13</v>
       </c>
       <c r="E42" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>13</v>
@@ -1891,7 +1897,7 @@
         <v>13</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>17</v>
@@ -1908,7 +1914,7 @@
         <v>13</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C43" t="s" s="2">
         <v>13</v>
@@ -1917,7 +1923,7 @@
         <v>13</v>
       </c>
       <c r="E43" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>13</v>
@@ -1926,7 +1932,7 @@
         <v>13</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>17</v>
@@ -1943,7 +1949,7 @@
         <v>13</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C44" t="s" s="2">
         <v>13</v>
@@ -1952,7 +1958,7 @@
         <v>13</v>
       </c>
       <c r="E44" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>13</v>
@@ -1961,7 +1967,7 @@
         <v>13</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>17</v>
@@ -1975,10 +1981,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C45" t="s" s="2">
         <v>13</v>
@@ -1987,7 +1993,7 @@
         <v>13</v>
       </c>
       <c r="E45" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>13</v>
@@ -1996,7 +2002,7 @@
         <v>15</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>17</v>
@@ -2013,7 +2019,7 @@
         <v>13</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C46" t="s" s="2">
         <v>13</v>
@@ -2022,7 +2028,7 @@
         <v>13</v>
       </c>
       <c r="E46" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>13</v>
@@ -2031,7 +2037,7 @@
         <v>13</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>17</v>
@@ -2048,7 +2054,7 @@
         <v>13</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C47" t="s" s="2">
         <v>13</v>
@@ -2057,7 +2063,7 @@
         <v>13</v>
       </c>
       <c r="E47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>13</v>
@@ -2066,7 +2072,7 @@
         <v>13</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>17</v>
@@ -2083,7 +2089,7 @@
         <v>13</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C48" t="s" s="2">
         <v>13</v>
@@ -2092,7 +2098,7 @@
         <v>13</v>
       </c>
       <c r="E48" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>13</v>
@@ -2101,7 +2107,7 @@
         <v>13</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>17</v>
@@ -2118,7 +2124,7 @@
         <v>13</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C49" t="s" s="2">
         <v>13</v>
@@ -2127,7 +2133,7 @@
         <v>13</v>
       </c>
       <c r="E49" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>13</v>
@@ -2136,7 +2142,7 @@
         <v>13</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>17</v>
@@ -2150,10 +2156,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C50" t="s" s="2">
         <v>13</v>
@@ -2162,7 +2168,7 @@
         <v>13</v>
       </c>
       <c r="E50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>13</v>
@@ -2171,7 +2177,7 @@
         <v>15</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>17</v>
@@ -2185,10 +2191,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C51" t="s" s="2">
         <v>13</v>
@@ -2197,7 +2203,7 @@
         <v>13</v>
       </c>
       <c r="E51" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>13</v>
@@ -2206,7 +2212,7 @@
         <v>15</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>17</v>
@@ -2220,19 +2226,19 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="C52" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D52" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E52" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="B52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="C52" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D52" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E52" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>13</v>
@@ -2241,7 +2247,7 @@
         <v>15</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>17</v>
@@ -2255,10 +2261,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C53" t="s" s="2">
         <v>13</v>
@@ -2267,7 +2273,7 @@
         <v>13</v>
       </c>
       <c r="E53" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F53" t="s" s="2">
         <v>13</v>
@@ -2276,7 +2282,7 @@
         <v>15</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>17</v>
@@ -2290,10 +2296,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C54" t="s" s="2">
         <v>20</v>
@@ -2311,7 +2317,7 @@
         <v>22</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>17</v>
@@ -2328,7 +2334,7 @@
         <v>13</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C55" t="s" s="2">
         <v>13</v>
@@ -2337,7 +2343,7 @@
         <v>13</v>
       </c>
       <c r="E55" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F55" t="s" s="2">
         <v>13</v>
@@ -2346,7 +2352,7 @@
         <v>13</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>17</v>
@@ -2363,7 +2369,7 @@
         <v>13</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C56" t="s" s="2">
         <v>13</v>
@@ -2372,7 +2378,7 @@
         <v>13</v>
       </c>
       <c r="E56" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>13</v>
@@ -2381,7 +2387,7 @@
         <v>13</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>17</v>
@@ -2398,7 +2404,7 @@
         <v>13</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C57" t="s" s="2">
         <v>13</v>
@@ -2407,7 +2413,7 @@
         <v>13</v>
       </c>
       <c r="E57" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>13</v>
@@ -2416,7 +2422,7 @@
         <v>13</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>17</v>
@@ -2433,7 +2439,7 @@
         <v>13</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C58" t="s" s="2">
         <v>13</v>
@@ -2442,7 +2448,7 @@
         <v>13</v>
       </c>
       <c r="E58" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>13</v>
@@ -2451,7 +2457,7 @@
         <v>13</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>17</v>
@@ -2468,7 +2474,7 @@
         <v>13</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C59" t="s" s="2">
         <v>13</v>
@@ -2477,7 +2483,7 @@
         <v>13</v>
       </c>
       <c r="E59" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F59" t="s" s="2">
         <v>13</v>
@@ -2486,7 +2492,7 @@
         <v>13</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>17</v>
@@ -2503,7 +2509,7 @@
         <v>13</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C60" t="s" s="2">
         <v>13</v>
@@ -2512,7 +2518,7 @@
         <v>13</v>
       </c>
       <c r="E60" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F60" t="s" s="2">
         <v>13</v>
@@ -2521,7 +2527,7 @@
         <v>13</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>17</v>
@@ -2538,7 +2544,7 @@
         <v>13</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C61" t="s" s="2">
         <v>13</v>
@@ -2547,7 +2553,7 @@
         <v>13</v>
       </c>
       <c r="E61" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F61" t="s" s="2">
         <v>13</v>
@@ -2556,7 +2562,7 @@
         <v>13</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>17</v>
@@ -2573,7 +2579,7 @@
         <v>13</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C62" t="s" s="2">
         <v>13</v>
@@ -2582,7 +2588,7 @@
         <v>13</v>
       </c>
       <c r="E62" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F62" t="s" s="2">
         <v>13</v>
@@ -2591,7 +2597,7 @@
         <v>13</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>17</v>
@@ -2608,7 +2614,7 @@
         <v>13</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C63" t="s" s="2">
         <v>13</v>
@@ -2617,7 +2623,7 @@
         <v>13</v>
       </c>
       <c r="E63" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F63" t="s" s="2">
         <v>13</v>
@@ -2626,7 +2632,7 @@
         <v>13</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>17</v>
@@ -2643,7 +2649,7 @@
         <v>13</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C64" t="s" s="2">
         <v>13</v>
@@ -2652,7 +2658,7 @@
         <v>13</v>
       </c>
       <c r="E64" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F64" t="s" s="2">
         <v>13</v>
@@ -2661,7 +2667,7 @@
         <v>13</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>17</v>
@@ -2678,7 +2684,7 @@
         <v>13</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C65" t="s" s="2">
         <v>13</v>
@@ -2687,7 +2693,7 @@
         <v>13</v>
       </c>
       <c r="E65" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F65" t="s" s="2">
         <v>13</v>
@@ -2696,7 +2702,7 @@
         <v>13</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>17</v>
@@ -2713,7 +2719,7 @@
         <v>13</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C66" t="s" s="2">
         <v>13</v>
@@ -2722,7 +2728,7 @@
         <v>13</v>
       </c>
       <c r="E66" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F66" t="s" s="2">
         <v>13</v>
@@ -2731,7 +2737,7 @@
         <v>13</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>17</v>
@@ -2748,7 +2754,7 @@
         <v>13</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C67" t="s" s="2">
         <v>13</v>
@@ -2757,7 +2763,7 @@
         <v>13</v>
       </c>
       <c r="E67" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F67" t="s" s="2">
         <v>13</v>
@@ -2766,7 +2772,7 @@
         <v>13</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>17</v>
@@ -2783,7 +2789,7 @@
         <v>13</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C68" t="s" s="2">
         <v>13</v>
@@ -2792,7 +2798,7 @@
         <v>13</v>
       </c>
       <c r="E68" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F68" t="s" s="2">
         <v>13</v>
@@ -2801,7 +2807,7 @@
         <v>13</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I68" t="s" s="2">
         <v>17</v>
@@ -2818,7 +2824,7 @@
         <v>13</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C69" t="s" s="2">
         <v>13</v>
@@ -2827,7 +2833,7 @@
         <v>13</v>
       </c>
       <c r="E69" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F69" t="s" s="2">
         <v>13</v>
@@ -2836,7 +2842,7 @@
         <v>13</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>17</v>
@@ -2853,7 +2859,7 @@
         <v>13</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C70" t="s" s="2">
         <v>13</v>
@@ -2862,16 +2868,16 @@
         <v>13</v>
       </c>
       <c r="E70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H70" t="s" s="2">
         <v>39</v>
-      </c>
-      <c r="F70" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>38</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>17</v>
@@ -2888,7 +2894,7 @@
         <v>13</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C71" t="s" s="2">
         <v>13</v>
@@ -2897,7 +2903,7 @@
         <v>13</v>
       </c>
       <c r="E71" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F71" t="s" s="2">
         <v>13</v>
@@ -2906,7 +2912,7 @@
         <v>13</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I71" t="s" s="2">
         <v>17</v>
@@ -2923,7 +2929,7 @@
         <v>13</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C72" t="s" s="2">
         <v>13</v>
@@ -2932,7 +2938,7 @@
         <v>13</v>
       </c>
       <c r="E72" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F72" t="s" s="2">
         <v>13</v>
@@ -2941,7 +2947,7 @@
         <v>13</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>17</v>
@@ -2958,7 +2964,7 @@
         <v>13</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C73" t="s" s="2">
         <v>13</v>
@@ -2967,7 +2973,7 @@
         <v>13</v>
       </c>
       <c r="E73" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F73" t="s" s="2">
         <v>13</v>
@@ -2976,7 +2982,7 @@
         <v>13</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I73" t="s" s="2">
         <v>17</v>
@@ -2993,7 +2999,7 @@
         <v>13</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C74" t="s" s="2">
         <v>13</v>
@@ -3002,16 +3008,16 @@
         <v>13</v>
       </c>
       <c r="E74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H74" t="s" s="2">
         <v>44</v>
-      </c>
-      <c r="F74" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>43</v>
       </c>
       <c r="I74" t="s" s="2">
         <v>17</v>
@@ -3028,7 +3034,7 @@
         <v>13</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C75" t="s" s="2">
         <v>13</v>
@@ -3037,7 +3043,7 @@
         <v>13</v>
       </c>
       <c r="E75" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F75" t="s" s="2">
         <v>13</v>
@@ -3046,7 +3052,7 @@
         <v>13</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I75" t="s" s="2">
         <v>17</v>
@@ -3063,7 +3069,7 @@
         <v>13</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C76" t="s" s="2">
         <v>13</v>
@@ -3072,7 +3078,7 @@
         <v>13</v>
       </c>
       <c r="E76" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F76" t="s" s="2">
         <v>13</v>
@@ -3081,7 +3087,7 @@
         <v>13</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s" s="2">
         <v>17</v>
@@ -3098,7 +3104,7 @@
         <v>13</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C77" t="s" s="2">
         <v>13</v>
@@ -3107,7 +3113,7 @@
         <v>13</v>
       </c>
       <c r="E77" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F77" t="s" s="2">
         <v>13</v>
@@ -3116,7 +3122,7 @@
         <v>13</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I77" t="s" s="2">
         <v>17</v>
@@ -3133,7 +3139,7 @@
         <v>13</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C78" t="s" s="2">
         <v>13</v>
@@ -3142,7 +3148,7 @@
         <v>13</v>
       </c>
       <c r="E78" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F78" t="s" s="2">
         <v>13</v>
@@ -3151,7 +3157,7 @@
         <v>13</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s" s="2">
         <v>17</v>
@@ -3168,7 +3174,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C79" t="s" s="2">
         <v>13</v>
@@ -3177,7 +3183,7 @@
         <v>13</v>
       </c>
       <c r="E79" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F79" t="s" s="2">
         <v>13</v>
@@ -3186,7 +3192,7 @@
         <v>13</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>17</v>
@@ -3203,7 +3209,7 @@
         <v>13</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C80" t="s" s="2">
         <v>13</v>
@@ -3212,7 +3218,7 @@
         <v>13</v>
       </c>
       <c r="E80" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F80" t="s" s="2">
         <v>13</v>
@@ -3221,7 +3227,7 @@
         <v>13</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I80" t="s" s="2">
         <v>17</v>
@@ -3238,7 +3244,7 @@
         <v>13</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C81" t="s" s="2">
         <v>13</v>
@@ -3247,7 +3253,7 @@
         <v>13</v>
       </c>
       <c r="E81" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F81" t="s" s="2">
         <v>13</v>
@@ -3256,7 +3262,7 @@
         <v>13</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I81" t="s" s="2">
         <v>17</v>
@@ -3273,7 +3279,7 @@
         <v>13</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C82" t="s" s="2">
         <v>13</v>
@@ -3282,7 +3288,7 @@
         <v>13</v>
       </c>
       <c r="E82" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F82" t="s" s="2">
         <v>13</v>
@@ -3291,7 +3297,7 @@
         <v>13</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I82" t="s" s="2">
         <v>17</v>
@@ -3308,7 +3314,7 @@
         <v>13</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C83" t="s" s="2">
         <v>13</v>
@@ -3317,7 +3323,7 @@
         <v>13</v>
       </c>
       <c r="E83" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F83" t="s" s="2">
         <v>13</v>
@@ -3326,7 +3332,7 @@
         <v>13</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I83" t="s" s="2">
         <v>17</v>
@@ -3343,7 +3349,7 @@
         <v>13</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C84" t="s" s="2">
         <v>13</v>
@@ -3352,7 +3358,7 @@
         <v>13</v>
       </c>
       <c r="E84" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F84" t="s" s="2">
         <v>13</v>
@@ -3361,7 +3367,7 @@
         <v>13</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I84" t="s" s="2">
         <v>17</v>
@@ -3378,7 +3384,7 @@
         <v>13</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C85" t="s" s="2">
         <v>13</v>
@@ -3387,7 +3393,7 @@
         <v>13</v>
       </c>
       <c r="E85" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F85" t="s" s="2">
         <v>13</v>
@@ -3396,7 +3402,7 @@
         <v>13</v>
       </c>
       <c r="H85" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I85" t="s" s="2">
         <v>17</v>
@@ -3413,7 +3419,7 @@
         <v>13</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C86" t="s" s="2">
         <v>13</v>
@@ -3422,16 +3428,16 @@
         <v>13</v>
       </c>
       <c r="E86" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="F86" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H86" t="s" s="2">
         <v>58</v>
-      </c>
-      <c r="F86" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>57</v>
       </c>
       <c r="I86" t="s" s="2">
         <v>17</v>
@@ -3448,7 +3454,7 @@
         <v>13</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C87" t="s" s="2">
         <v>13</v>
@@ -3457,7 +3463,7 @@
         <v>13</v>
       </c>
       <c r="E87" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F87" t="s" s="2">
         <v>13</v>
@@ -3466,7 +3472,7 @@
         <v>13</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I87" t="s" s="2">
         <v>17</v>
@@ -3480,10 +3486,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C88" t="s" s="2">
         <v>20</v>
@@ -3501,7 +3507,7 @@
         <v>22</v>
       </c>
       <c r="H88" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I88" t="s" s="2">
         <v>17</v>
@@ -3518,7 +3524,7 @@
         <v>13</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C89" t="s" s="2">
         <v>13</v>
@@ -3527,7 +3533,7 @@
         <v>13</v>
       </c>
       <c r="E89" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F89" t="s" s="2">
         <v>13</v>
@@ -3536,7 +3542,7 @@
         <v>13</v>
       </c>
       <c r="H89" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I89" t="s" s="2">
         <v>17</v>
@@ -3553,7 +3559,7 @@
         <v>13</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C90" t="s" s="2">
         <v>13</v>
@@ -3562,7 +3568,7 @@
         <v>13</v>
       </c>
       <c r="E90" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F90" t="s" s="2">
         <v>13</v>
@@ -3571,7 +3577,7 @@
         <v>13</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I90" t="s" s="2">
         <v>17</v>
@@ -3588,7 +3594,7 @@
         <v>13</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C91" t="s" s="2">
         <v>13</v>
@@ -3597,7 +3603,7 @@
         <v>13</v>
       </c>
       <c r="E91" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F91" t="s" s="2">
         <v>13</v>
@@ -3606,7 +3612,7 @@
         <v>13</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I91" t="s" s="2">
         <v>17</v>
@@ -3623,7 +3629,7 @@
         <v>13</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C92" t="s" s="2">
         <v>13</v>
@@ -3632,7 +3638,7 @@
         <v>13</v>
       </c>
       <c r="E92" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F92" t="s" s="2">
         <v>13</v>
@@ -3641,7 +3647,7 @@
         <v>13</v>
       </c>
       <c r="H92" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I92" t="s" s="2">
         <v>17</v>
@@ -3658,7 +3664,7 @@
         <v>13</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C93" t="s" s="2">
         <v>13</v>
@@ -3667,7 +3673,7 @@
         <v>13</v>
       </c>
       <c r="E93" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F93" t="s" s="2">
         <v>13</v>
@@ -3676,7 +3682,7 @@
         <v>13</v>
       </c>
       <c r="H93" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I93" t="s" s="2">
         <v>17</v>
@@ -3693,7 +3699,7 @@
         <v>13</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C94" t="s" s="2">
         <v>13</v>
@@ -3702,7 +3708,7 @@
         <v>13</v>
       </c>
       <c r="E94" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F94" t="s" s="2">
         <v>13</v>
@@ -3711,7 +3717,7 @@
         <v>13</v>
       </c>
       <c r="H94" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I94" t="s" s="2">
         <v>17</v>
@@ -3728,7 +3734,7 @@
         <v>13</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C95" t="s" s="2">
         <v>13</v>
@@ -3737,7 +3743,7 @@
         <v>13</v>
       </c>
       <c r="E95" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F95" t="s" s="2">
         <v>13</v>
@@ -3746,7 +3752,7 @@
         <v>13</v>
       </c>
       <c r="H95" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I95" t="s" s="2">
         <v>17</v>
@@ -3763,7 +3769,7 @@
         <v>13</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C96" t="s" s="2">
         <v>13</v>
@@ -3772,7 +3778,7 @@
         <v>13</v>
       </c>
       <c r="E96" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F96" t="s" s="2">
         <v>13</v>
@@ -3781,7 +3787,7 @@
         <v>13</v>
       </c>
       <c r="H96" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I96" t="s" s="2">
         <v>17</v>
@@ -3798,7 +3804,7 @@
         <v>13</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C97" t="s" s="2">
         <v>13</v>
@@ -3807,7 +3813,7 @@
         <v>13</v>
       </c>
       <c r="E97" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F97" t="s" s="2">
         <v>13</v>
@@ -3816,7 +3822,7 @@
         <v>13</v>
       </c>
       <c r="H97" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I97" t="s" s="2">
         <v>17</v>
@@ -3833,7 +3839,7 @@
         <v>13</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C98" t="s" s="2">
         <v>13</v>
@@ -3842,7 +3848,7 @@
         <v>13</v>
       </c>
       <c r="E98" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F98" t="s" s="2">
         <v>13</v>
@@ -3851,7 +3857,7 @@
         <v>13</v>
       </c>
       <c r="H98" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I98" t="s" s="2">
         <v>17</v>
@@ -3868,7 +3874,7 @@
         <v>13</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C99" t="s" s="2">
         <v>13</v>
@@ -3877,7 +3883,7 @@
         <v>13</v>
       </c>
       <c r="E99" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F99" t="s" s="2">
         <v>13</v>
@@ -3886,7 +3892,7 @@
         <v>13</v>
       </c>
       <c r="H99" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I99" t="s" s="2">
         <v>17</v>
@@ -3903,7 +3909,7 @@
         <v>13</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C100" t="s" s="2">
         <v>13</v>
@@ -3912,7 +3918,7 @@
         <v>13</v>
       </c>
       <c r="E100" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F100" t="s" s="2">
         <v>13</v>
@@ -3921,7 +3927,7 @@
         <v>13</v>
       </c>
       <c r="H100" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I100" t="s" s="2">
         <v>17</v>
@@ -3938,7 +3944,7 @@
         <v>13</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C101" t="s" s="2">
         <v>13</v>
@@ -3947,7 +3953,7 @@
         <v>13</v>
       </c>
       <c r="E101" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F101" t="s" s="2">
         <v>13</v>
@@ -3956,7 +3962,7 @@
         <v>13</v>
       </c>
       <c r="H101" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I101" t="s" s="2">
         <v>17</v>
@@ -3973,7 +3979,7 @@
         <v>13</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C102" t="s" s="2">
         <v>13</v>
@@ -3982,7 +3988,7 @@
         <v>13</v>
       </c>
       <c r="E102" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F102" t="s" s="2">
         <v>13</v>
@@ -3991,7 +3997,7 @@
         <v>13</v>
       </c>
       <c r="H102" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I102" t="s" s="2">
         <v>17</v>
@@ -4008,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C103" t="s" s="2">
         <v>13</v>
@@ -4017,7 +4023,7 @@
         <v>13</v>
       </c>
       <c r="E103" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F103" t="s" s="2">
         <v>13</v>
@@ -4026,7 +4032,7 @@
         <v>13</v>
       </c>
       <c r="H103" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I103" t="s" s="2">
         <v>17</v>
@@ -4043,7 +4049,7 @@
         <v>13</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C104" t="s" s="2">
         <v>13</v>
@@ -4052,16 +4058,16 @@
         <v>13</v>
       </c>
       <c r="E104" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F104" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H104" t="s" s="2">
         <v>39</v>
-      </c>
-      <c r="F104" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="G104" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="H104" t="s" s="2">
-        <v>38</v>
       </c>
       <c r="I104" t="s" s="2">
         <v>17</v>
@@ -4078,7 +4084,7 @@
         <v>13</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C105" t="s" s="2">
         <v>13</v>
@@ -4087,7 +4093,7 @@
         <v>13</v>
       </c>
       <c r="E105" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F105" t="s" s="2">
         <v>13</v>
@@ -4096,7 +4102,7 @@
         <v>13</v>
       </c>
       <c r="H105" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I105" t="s" s="2">
         <v>17</v>
@@ -4113,7 +4119,7 @@
         <v>13</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C106" t="s" s="2">
         <v>13</v>
@@ -4122,7 +4128,7 @@
         <v>13</v>
       </c>
       <c r="E106" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F106" t="s" s="2">
         <v>13</v>
@@ -4131,7 +4137,7 @@
         <v>13</v>
       </c>
       <c r="H106" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I106" t="s" s="2">
         <v>17</v>
@@ -4148,7 +4154,7 @@
         <v>13</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C107" t="s" s="2">
         <v>13</v>
@@ -4157,7 +4163,7 @@
         <v>13</v>
       </c>
       <c r="E107" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F107" t="s" s="2">
         <v>13</v>
@@ -4166,7 +4172,7 @@
         <v>13</v>
       </c>
       <c r="H107" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I107" t="s" s="2">
         <v>17</v>
@@ -4183,7 +4189,7 @@
         <v>13</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C108" t="s" s="2">
         <v>13</v>
@@ -4192,16 +4198,16 @@
         <v>13</v>
       </c>
       <c r="E108" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="F108" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G108" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H108" t="s" s="2">
         <v>44</v>
-      </c>
-      <c r="F108" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="G108" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="H108" t="s" s="2">
-        <v>43</v>
       </c>
       <c r="I108" t="s" s="2">
         <v>17</v>
@@ -4218,7 +4224,7 @@
         <v>13</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C109" t="s" s="2">
         <v>13</v>
@@ -4227,7 +4233,7 @@
         <v>13</v>
       </c>
       <c r="E109" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F109" t="s" s="2">
         <v>13</v>
@@ -4236,7 +4242,7 @@
         <v>13</v>
       </c>
       <c r="H109" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I109" t="s" s="2">
         <v>17</v>
@@ -4253,7 +4259,7 @@
         <v>13</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C110" t="s" s="2">
         <v>13</v>
@@ -4262,7 +4268,7 @@
         <v>13</v>
       </c>
       <c r="E110" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F110" t="s" s="2">
         <v>13</v>
@@ -4271,7 +4277,7 @@
         <v>13</v>
       </c>
       <c r="H110" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I110" t="s" s="2">
         <v>17</v>
@@ -4288,7 +4294,7 @@
         <v>13</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C111" t="s" s="2">
         <v>13</v>
@@ -4297,7 +4303,7 @@
         <v>13</v>
       </c>
       <c r="E111" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F111" t="s" s="2">
         <v>13</v>
@@ -4306,7 +4312,7 @@
         <v>13</v>
       </c>
       <c r="H111" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I111" t="s" s="2">
         <v>17</v>
@@ -4323,7 +4329,7 @@
         <v>13</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C112" t="s" s="2">
         <v>13</v>
@@ -4332,7 +4338,7 @@
         <v>13</v>
       </c>
       <c r="E112" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F112" t="s" s="2">
         <v>13</v>
@@ -4341,7 +4347,7 @@
         <v>13</v>
       </c>
       <c r="H112" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I112" t="s" s="2">
         <v>17</v>
@@ -4358,7 +4364,7 @@
         <v>13</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C113" t="s" s="2">
         <v>13</v>
@@ -4367,7 +4373,7 @@
         <v>13</v>
       </c>
       <c r="E113" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F113" t="s" s="2">
         <v>13</v>
@@ -4376,7 +4382,7 @@
         <v>13</v>
       </c>
       <c r="H113" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I113" t="s" s="2">
         <v>17</v>
@@ -4393,7 +4399,7 @@
         <v>13</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C114" t="s" s="2">
         <v>13</v>
@@ -4402,7 +4408,7 @@
         <v>13</v>
       </c>
       <c r="E114" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F114" t="s" s="2">
         <v>13</v>
@@ -4411,7 +4417,7 @@
         <v>13</v>
       </c>
       <c r="H114" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I114" t="s" s="2">
         <v>17</v>
@@ -4428,7 +4434,7 @@
         <v>13</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C115" t="s" s="2">
         <v>13</v>
@@ -4437,7 +4443,7 @@
         <v>13</v>
       </c>
       <c r="E115" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F115" t="s" s="2">
         <v>13</v>
@@ -4446,7 +4452,7 @@
         <v>13</v>
       </c>
       <c r="H115" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I115" t="s" s="2">
         <v>17</v>
@@ -4463,7 +4469,7 @@
         <v>13</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C116" t="s" s="2">
         <v>13</v>
@@ -4472,7 +4478,7 @@
         <v>13</v>
       </c>
       <c r="E116" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F116" t="s" s="2">
         <v>13</v>
@@ -4481,7 +4487,7 @@
         <v>13</v>
       </c>
       <c r="H116" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I116" t="s" s="2">
         <v>17</v>
@@ -4498,7 +4504,7 @@
         <v>13</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C117" t="s" s="2">
         <v>13</v>
@@ -4507,7 +4513,7 @@
         <v>13</v>
       </c>
       <c r="E117" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F117" t="s" s="2">
         <v>13</v>
@@ -4516,7 +4522,7 @@
         <v>13</v>
       </c>
       <c r="H117" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I117" t="s" s="2">
         <v>17</v>
@@ -4533,7 +4539,7 @@
         <v>13</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C118" t="s" s="2">
         <v>13</v>
@@ -4542,7 +4548,7 @@
         <v>13</v>
       </c>
       <c r="E118" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F118" t="s" s="2">
         <v>13</v>
@@ -4551,7 +4557,7 @@
         <v>13</v>
       </c>
       <c r="H118" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I118" t="s" s="2">
         <v>17</v>
@@ -4568,7 +4574,7 @@
         <v>13</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C119" t="s" s="2">
         <v>13</v>
@@ -4577,7 +4583,7 @@
         <v>13</v>
       </c>
       <c r="E119" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F119" t="s" s="2">
         <v>13</v>
@@ -4586,7 +4592,7 @@
         <v>13</v>
       </c>
       <c r="H119" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I119" t="s" s="2">
         <v>17</v>
@@ -4603,7 +4609,7 @@
         <v>13</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C120" t="s" s="2">
         <v>13</v>
@@ -4621,7 +4627,7 @@
         <v>13</v>
       </c>
       <c r="H120" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I120" t="s" s="2">
         <v>17</v>
@@ -4635,10 +4641,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C121" t="s" s="2">
         <v>13</v>
@@ -4647,16 +4653,16 @@
         <v>13</v>
       </c>
       <c r="E121" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F121" t="s" s="2">
         <v>13</v>
       </c>
       <c r="G121" t="s" s="2">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="H121" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I121" t="s" s="2">
         <v>17</v>

--- a/output/observations-summary.xlsx
+++ b/output/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="98">
   <si>
     <t>Profile</t>
   </si>
@@ -279,6 +279,12 @@
   </si>
   <si>
     <t>Single Nucleotide Polymorphism</t>
+  </si>
+  <si>
+    <t>LOINC#48000-4</t>
+  </si>
+  <si>
+    <t>LOINC#LP232001-0</t>
   </si>
   <si>
     <t>variant-annotation</t>
@@ -433,7 +439,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K121"/>
+  <dimension ref="A1:K123"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -3393,7 +3399,7 @@
         <v>13</v>
       </c>
       <c r="E85" t="s" s="2">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F85" t="s" s="2">
         <v>13</v>
@@ -3402,7 +3408,7 @@
         <v>13</v>
       </c>
       <c r="H85" t="s" s="2">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="I85" t="s" s="2">
         <v>17</v>
@@ -3428,7 +3434,7 @@
         <v>13</v>
       </c>
       <c r="E86" t="s" s="2">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F86" t="s" s="2">
         <v>13</v>
@@ -3463,7 +3469,7 @@
         <v>13</v>
       </c>
       <c r="E87" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F87" t="s" s="2">
         <v>13</v>
@@ -3472,7 +3478,7 @@
         <v>13</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="I87" t="s" s="2">
         <v>17</v>
@@ -3486,25 +3492,25 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="C88" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D88" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E88" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="B88" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="C88" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D88" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E88" t="s" s="2">
-        <v>21</v>
-      </c>
       <c r="F88" t="s" s="2">
         <v>13</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>23</v>
@@ -3524,17 +3530,17 @@
         <v>13</v>
       </c>
       <c r="B89" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="C89" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D89" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E89" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="C89" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D89" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E89" t="s" s="2">
-        <v>24</v>
-      </c>
       <c r="F89" t="s" s="2">
         <v>13</v>
       </c>
@@ -3542,7 +3548,7 @@
         <v>13</v>
       </c>
       <c r="H89" t="s" s="2">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="I89" t="s" s="2">
         <v>17</v>
@@ -3556,25 +3562,25 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D90" t="s" s="2">
         <v>13</v>
       </c>
       <c r="E90" t="s" s="2">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F90" t="s" s="2">
         <v>13</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>23</v>
@@ -3594,7 +3600,7 @@
         <v>13</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C91" t="s" s="2">
         <v>13</v>
@@ -3603,7 +3609,7 @@
         <v>13</v>
       </c>
       <c r="E91" t="s" s="2">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F91" t="s" s="2">
         <v>13</v>
@@ -3629,7 +3635,7 @@
         <v>13</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C92" t="s" s="2">
         <v>13</v>
@@ -3638,7 +3644,7 @@
         <v>13</v>
       </c>
       <c r="E92" t="s" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F92" t="s" s="2">
         <v>13</v>
@@ -3664,7 +3670,7 @@
         <v>13</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C93" t="s" s="2">
         <v>13</v>
@@ -3673,7 +3679,7 @@
         <v>13</v>
       </c>
       <c r="E93" t="s" s="2">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F93" t="s" s="2">
         <v>13</v>
@@ -3699,7 +3705,7 @@
         <v>13</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C94" t="s" s="2">
         <v>13</v>
@@ -3708,7 +3714,7 @@
         <v>13</v>
       </c>
       <c r="E94" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F94" t="s" s="2">
         <v>13</v>
@@ -3734,7 +3740,7 @@
         <v>13</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C95" t="s" s="2">
         <v>13</v>
@@ -3743,7 +3749,7 @@
         <v>13</v>
       </c>
       <c r="E95" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F95" t="s" s="2">
         <v>13</v>
@@ -3769,7 +3775,7 @@
         <v>13</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C96" t="s" s="2">
         <v>13</v>
@@ -3778,7 +3784,7 @@
         <v>13</v>
       </c>
       <c r="E96" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F96" t="s" s="2">
         <v>13</v>
@@ -3804,7 +3810,7 @@
         <v>13</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C97" t="s" s="2">
         <v>13</v>
@@ -3813,7 +3819,7 @@
         <v>13</v>
       </c>
       <c r="E97" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F97" t="s" s="2">
         <v>13</v>
@@ -3839,7 +3845,7 @@
         <v>13</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C98" t="s" s="2">
         <v>13</v>
@@ -3848,7 +3854,7 @@
         <v>13</v>
       </c>
       <c r="E98" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F98" t="s" s="2">
         <v>13</v>
@@ -3874,7 +3880,7 @@
         <v>13</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C99" t="s" s="2">
         <v>13</v>
@@ -3883,7 +3889,7 @@
         <v>13</v>
       </c>
       <c r="E99" t="s" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F99" t="s" s="2">
         <v>13</v>
@@ -3909,7 +3915,7 @@
         <v>13</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C100" t="s" s="2">
         <v>13</v>
@@ -3918,7 +3924,7 @@
         <v>13</v>
       </c>
       <c r="E100" t="s" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F100" t="s" s="2">
         <v>13</v>
@@ -3944,7 +3950,7 @@
         <v>13</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C101" t="s" s="2">
         <v>13</v>
@@ -3953,7 +3959,7 @@
         <v>13</v>
       </c>
       <c r="E101" t="s" s="2">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F101" t="s" s="2">
         <v>13</v>
@@ -3979,7 +3985,7 @@
         <v>13</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C102" t="s" s="2">
         <v>13</v>
@@ -3988,7 +3994,7 @@
         <v>13</v>
       </c>
       <c r="E102" t="s" s="2">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F102" t="s" s="2">
         <v>13</v>
@@ -4014,7 +4020,7 @@
         <v>13</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C103" t="s" s="2">
         <v>13</v>
@@ -4023,7 +4029,7 @@
         <v>13</v>
       </c>
       <c r="E103" t="s" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F103" t="s" s="2">
         <v>13</v>
@@ -4032,7 +4038,7 @@
         <v>13</v>
       </c>
       <c r="H103" t="s" s="2">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="I103" t="s" s="2">
         <v>17</v>
@@ -4049,7 +4055,7 @@
         <v>13</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C104" t="s" s="2">
         <v>13</v>
@@ -4058,7 +4064,7 @@
         <v>13</v>
       </c>
       <c r="E104" t="s" s="2">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F104" t="s" s="2">
         <v>13</v>
@@ -4067,7 +4073,7 @@
         <v>13</v>
       </c>
       <c r="H104" t="s" s="2">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="I104" t="s" s="2">
         <v>17</v>
@@ -4084,7 +4090,7 @@
         <v>13</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C105" t="s" s="2">
         <v>13</v>
@@ -4093,7 +4099,7 @@
         <v>13</v>
       </c>
       <c r="E105" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F105" t="s" s="2">
         <v>13</v>
@@ -4102,7 +4108,7 @@
         <v>13</v>
       </c>
       <c r="H105" t="s" s="2">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="I105" t="s" s="2">
         <v>17</v>
@@ -4119,7 +4125,7 @@
         <v>13</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C106" t="s" s="2">
         <v>13</v>
@@ -4128,7 +4134,7 @@
         <v>13</v>
       </c>
       <c r="E106" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F106" t="s" s="2">
         <v>13</v>
@@ -4154,7 +4160,7 @@
         <v>13</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C107" t="s" s="2">
         <v>13</v>
@@ -4163,7 +4169,7 @@
         <v>13</v>
       </c>
       <c r="E107" t="s" s="2">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F107" t="s" s="2">
         <v>13</v>
@@ -4172,7 +4178,7 @@
         <v>13</v>
       </c>
       <c r="H107" t="s" s="2">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="I107" t="s" s="2">
         <v>17</v>
@@ -4189,7 +4195,7 @@
         <v>13</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C108" t="s" s="2">
         <v>13</v>
@@ -4198,7 +4204,7 @@
         <v>13</v>
       </c>
       <c r="E108" t="s" s="2">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F108" t="s" s="2">
         <v>13</v>
@@ -4207,7 +4213,7 @@
         <v>13</v>
       </c>
       <c r="H108" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I108" t="s" s="2">
         <v>17</v>
@@ -4224,7 +4230,7 @@
         <v>13</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C109" t="s" s="2">
         <v>13</v>
@@ -4233,7 +4239,7 @@
         <v>13</v>
       </c>
       <c r="E109" t="s" s="2">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F109" t="s" s="2">
         <v>13</v>
@@ -4242,7 +4248,7 @@
         <v>13</v>
       </c>
       <c r="H109" t="s" s="2">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="I109" t="s" s="2">
         <v>17</v>
@@ -4259,7 +4265,7 @@
         <v>13</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C110" t="s" s="2">
         <v>13</v>
@@ -4268,7 +4274,7 @@
         <v>13</v>
       </c>
       <c r="E110" t="s" s="2">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F110" t="s" s="2">
         <v>13</v>
@@ -4277,7 +4283,7 @@
         <v>13</v>
       </c>
       <c r="H110" t="s" s="2">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I110" t="s" s="2">
         <v>17</v>
@@ -4294,7 +4300,7 @@
         <v>13</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C111" t="s" s="2">
         <v>13</v>
@@ -4303,7 +4309,7 @@
         <v>13</v>
       </c>
       <c r="E111" t="s" s="2">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F111" t="s" s="2">
         <v>13</v>
@@ -4312,7 +4318,7 @@
         <v>13</v>
       </c>
       <c r="H111" t="s" s="2">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="I111" t="s" s="2">
         <v>17</v>
@@ -4329,7 +4335,7 @@
         <v>13</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C112" t="s" s="2">
         <v>13</v>
@@ -4338,7 +4344,7 @@
         <v>13</v>
       </c>
       <c r="E112" t="s" s="2">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F112" t="s" s="2">
         <v>13</v>
@@ -4364,7 +4370,7 @@
         <v>13</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C113" t="s" s="2">
         <v>13</v>
@@ -4373,7 +4379,7 @@
         <v>13</v>
       </c>
       <c r="E113" t="s" s="2">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F113" t="s" s="2">
         <v>13</v>
@@ -4382,7 +4388,7 @@
         <v>13</v>
       </c>
       <c r="H113" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="I113" t="s" s="2">
         <v>17</v>
@@ -4399,7 +4405,7 @@
         <v>13</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C114" t="s" s="2">
         <v>13</v>
@@ -4408,7 +4414,7 @@
         <v>13</v>
       </c>
       <c r="E114" t="s" s="2">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F114" t="s" s="2">
         <v>13</v>
@@ -4417,7 +4423,7 @@
         <v>13</v>
       </c>
       <c r="H114" t="s" s="2">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="I114" t="s" s="2">
         <v>17</v>
@@ -4434,7 +4440,7 @@
         <v>13</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C115" t="s" s="2">
         <v>13</v>
@@ -4443,7 +4449,7 @@
         <v>13</v>
       </c>
       <c r="E115" t="s" s="2">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F115" t="s" s="2">
         <v>13</v>
@@ -4452,7 +4458,7 @@
         <v>13</v>
       </c>
       <c r="H115" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="I115" t="s" s="2">
         <v>17</v>
@@ -4469,7 +4475,7 @@
         <v>13</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C116" t="s" s="2">
         <v>13</v>
@@ -4478,7 +4484,7 @@
         <v>13</v>
       </c>
       <c r="E116" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F116" t="s" s="2">
         <v>13</v>
@@ -4504,7 +4510,7 @@
         <v>13</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C117" t="s" s="2">
         <v>13</v>
@@ -4513,7 +4519,7 @@
         <v>13</v>
       </c>
       <c r="E117" t="s" s="2">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F117" t="s" s="2">
         <v>13</v>
@@ -4522,7 +4528,7 @@
         <v>13</v>
       </c>
       <c r="H117" t="s" s="2">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="I117" t="s" s="2">
         <v>17</v>
@@ -4539,7 +4545,7 @@
         <v>13</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C118" t="s" s="2">
         <v>13</v>
@@ -4548,7 +4554,7 @@
         <v>13</v>
       </c>
       <c r="E118" t="s" s="2">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F118" t="s" s="2">
         <v>13</v>
@@ -4574,7 +4580,7 @@
         <v>13</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C119" t="s" s="2">
         <v>13</v>
@@ -4583,7 +4589,7 @@
         <v>13</v>
       </c>
       <c r="E119" t="s" s="2">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="F119" t="s" s="2">
         <v>13</v>
@@ -4592,7 +4598,7 @@
         <v>13</v>
       </c>
       <c r="H119" t="s" s="2">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="I119" t="s" s="2">
         <v>17</v>
@@ -4609,7 +4615,7 @@
         <v>13</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C120" t="s" s="2">
         <v>13</v>
@@ -4618,7 +4624,7 @@
         <v>13</v>
       </c>
       <c r="E120" t="s" s="2">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="F120" t="s" s="2">
         <v>13</v>
@@ -4627,7 +4633,7 @@
         <v>13</v>
       </c>
       <c r="H120" t="s" s="2">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="I120" t="s" s="2">
         <v>17</v>
@@ -4641,36 +4647,106 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B121" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="B121" t="s" s="2">
+      <c r="C121" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D121" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E121" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="C121" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D121" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E121" t="s" s="2">
+      <c r="F121" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G121" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H121" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="I121" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J121" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K121" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B122" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="C122" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D122" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E122" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F122" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G122" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H122" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I122" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J122" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K122" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="F121" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="G121" t="s" s="2">
+      <c r="B123" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="H121" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="I121" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="J121" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="K121" t="s" s="2">
+      <c r="C123" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D123" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E123" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="F123" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G123" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="H123" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="I123" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J123" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K123" t="s" s="2">
         <v>13</v>
       </c>
     </row>

--- a/output/observations-summary.xlsx
+++ b/output/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="101">
   <si>
     <t>Profile</t>
   </si>
@@ -291,6 +291,15 @@
   </si>
   <si>
     <t>Variant Annotation</t>
+  </si>
+  <si>
+    <t>LOINC#LP91038-7</t>
+  </si>
+  <si>
+    <t>LOINC#LP70194-3</t>
+  </si>
+  <si>
+    <t>LOINC#93044-6</t>
   </si>
   <si>
     <t>Unified Medical Language System#C0035687</t>
@@ -439,7 +448,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K123"/>
+  <dimension ref="A1:K126"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -4668,7 +4677,7 @@
         <v>13</v>
       </c>
       <c r="H121" t="s" s="2">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="I121" t="s" s="2">
         <v>17</v>
@@ -4694,7 +4703,7 @@
         <v>13</v>
       </c>
       <c r="E122" t="s" s="2">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="F122" t="s" s="2">
         <v>13</v>
@@ -4703,7 +4712,7 @@
         <v>13</v>
       </c>
       <c r="H122" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I122" t="s" s="2">
         <v>17</v>
@@ -4717,36 +4726,141 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="B123" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="C123" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D123" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E123" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="C123" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D123" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E123" t="s" s="2">
+      <c r="F123" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G123" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H123" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I123" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J123" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K123" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B124" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="C124" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D124" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E124" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="F124" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G124" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H124" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="I124" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J124" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K124" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B125" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="C125" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D125" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E125" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="F123" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="G123" t="s" s="2">
+      <c r="F125" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G125" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H125" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="I125" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J125" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K125" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="H123" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="I123" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="J123" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="K123" t="s" s="2">
+      <c r="B126" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="C126" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D126" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E126" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="F126" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G126" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="H126" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="I126" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J126" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K126" t="s" s="2">
         <v>13</v>
       </c>
     </row>

--- a/output/observations-summary.xlsx
+++ b/output/observations-summary.xlsx
@@ -2294,10 +2294,10 @@
         <v>13</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>17</v>
